--- a/excel/Book2.xlsx
+++ b/excel/Book2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RealPython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RealPython\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C54EE6-E023-4D9D-A56A-9FDB892A3163}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28C8A26-8833-4082-9CE3-5A2D7CE99FCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2748" yWindow="2040" windowWidth="17988" windowHeight="9060" xr2:uid="{A528A3F1-FB2C-4DDF-9498-AF63973EA169}"/>
+    <workbookView xWindow="5928" yWindow="2496" windowWidth="17988" windowHeight="9060" xr2:uid="{A528A3F1-FB2C-4DDF-9498-AF63973EA169}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,8 +94,8 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1">
+        <row r="2">
+          <cell r="C2">
             <v>4</v>
           </cell>
         </row>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AD7908-C435-4BF3-A0CD-15E5E8487114}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -410,9 +410,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <f>5+[1]Sheet1!$A$1</f>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f>A2+[1]Sheet1!$C$2</f>
         <v>9</v>
       </c>
     </row>

--- a/excel/Book2.xlsx
+++ b/excel/Book2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RealPython\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Real Python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28C8A26-8833-4082-9CE3-5A2D7CE99FCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5410F55-5837-4AA5-B0DA-CE9A58C6FE79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5928" yWindow="2496" windowWidth="17988" windowHeight="9060" xr2:uid="{A528A3F1-FB2C-4DDF-9498-AF63973EA169}"/>
+    <workbookView xWindow="2700" yWindow="2292" windowWidth="17988" windowHeight="9060" xr2:uid="{A528A3F1-FB2C-4DDF-9498-AF63973EA169}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="C2">
-            <v>4</v>
+            <v>9</v>
           </cell>
         </row>
       </sheetData>
@@ -405,7 +405,7 @@
   <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,7 +416,7 @@
       </c>
       <c r="C2">
         <f>A2+[1]Sheet1!$C$2</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
